--- a/data/nzd0565/nzd0565.xlsx
+++ b/data/nzd0565/nzd0565.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E920"/>
+  <dimension ref="A1:E926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19285,6 +19285,132 @@
         <v>198.05</v>
       </c>
       <c r="E920" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B921" t="n">
+        <v>214.73</v>
+      </c>
+      <c r="C921" t="n">
+        <v>209.33</v>
+      </c>
+      <c r="D921" t="n">
+        <v>201.64</v>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B922" t="n">
+        <v>212.97</v>
+      </c>
+      <c r="C922" t="n">
+        <v>212.3</v>
+      </c>
+      <c r="D922" t="n">
+        <v>202.93</v>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B923" t="n">
+        <v>209.04</v>
+      </c>
+      <c r="C923" t="n">
+        <v>194.24</v>
+      </c>
+      <c r="D923" t="n">
+        <v>203.59</v>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:13:22+00:00</t>
+        </is>
+      </c>
+      <c r="B924" t="n">
+        <v>207.46</v>
+      </c>
+      <c r="C924" t="n">
+        <v>210.7</v>
+      </c>
+      <c r="D924" t="n">
+        <v>198.27</v>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B925" t="n">
+        <v>211.6</v>
+      </c>
+      <c r="C925" t="n">
+        <v>213.91</v>
+      </c>
+      <c r="D925" t="n">
+        <v>201.88</v>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:19+00:00</t>
+        </is>
+      </c>
+      <c r="B926" t="n">
+        <v>201.37</v>
+      </c>
+      <c r="C926" t="n">
+        <v>207.34</v>
+      </c>
+      <c r="D926" t="n">
+        <v>193.02</v>
+      </c>
+      <c r="E926" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -19301,7 +19427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1052"/>
+  <dimension ref="A1:B1058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29829,6 +29955,66 @@
       </c>
       <c r="B1052" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1053" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1054" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1055" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1056" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1057" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1058" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -29990,34 +30176,34 @@
         <v>0.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1136</v>
+        <v>0.1133</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1309</v>
+        <v>0.1302</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002417985342466788</v>
+        <v>-0.005721020354521624</v>
       </c>
       <c r="J2" t="n">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="K2" t="n">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="L2" t="n">
-        <v>6.016055983715241e-06</v>
+        <v>3.39628013561466e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>5.704410187458048</v>
+        <v>5.700363267570911</v>
       </c>
       <c r="N2" t="n">
-        <v>56.19275267721248</v>
+        <v>56.16880107911843</v>
       </c>
       <c r="O2" t="n">
-        <v>7.496182540280919</v>
+        <v>7.494584783636678</v>
       </c>
       <c r="P2" t="n">
-        <v>215.3518344189683</v>
+        <v>215.4336902677472</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30062,34 +30248,34 @@
         <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0838</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0951</v>
+        <v>0.0954</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03812120020527972</v>
+        <v>-0.04016815482673739</v>
       </c>
       <c r="J3" t="n">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="K3" t="n">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001186302398769268</v>
+        <v>0.001331191610570603</v>
       </c>
       <c r="M3" t="n">
-        <v>6.652260999808022</v>
+        <v>6.636416985698339</v>
       </c>
       <c r="N3" t="n">
-        <v>70.26643649180369</v>
+        <v>70.08582833284066</v>
       </c>
       <c r="O3" t="n">
-        <v>8.38250776866945</v>
+        <v>8.371727917989253</v>
       </c>
       <c r="P3" t="n">
-        <v>210.4999408226321</v>
+        <v>210.5203764512084</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30134,34 +30320,34 @@
         <v>0.105</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0993</v>
+        <v>0.09909999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1112</v>
+        <v>0.1109</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1002505140459305</v>
+        <v>-0.1014067399479164</v>
       </c>
       <c r="J4" t="n">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="K4" t="n">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008725536332494177</v>
+        <v>0.009051177747510741</v>
       </c>
       <c r="M4" t="n">
-        <v>6.286094877962203</v>
+        <v>6.261094760862321</v>
       </c>
       <c r="N4" t="n">
-        <v>65.18678174625497</v>
+        <v>64.82780668068165</v>
       </c>
       <c r="O4" t="n">
-        <v>8.073833150756521</v>
+        <v>8.051571690091423</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7002212648447</v>
+        <v>203.7118181607029</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30199,7 +30385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E920"/>
+  <dimension ref="A1:E926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54103,6 +54289,168 @@
         </is>
       </c>
     </row>
+    <row r="921">
+      <c r="A921" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>-41.01944535980771,173.0184171023383</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>-41.018745298319544,173.01846194082043</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>-41.01808912594435,173.01876749488034</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>-41.01944483889422,173.0183961804012</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>-41.01875079221819,173.01849651250652</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>-41.01809681375823,173.01877900021506</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:13:17+00:00</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>-41.019443675704416,173.01834946266789</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>-41.018717384714684,173.01828628880708</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>-41.0181007470579,173.01878488666642</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:13:22+00:00</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>-41.01944320805534,173.01833068047532</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>-41.01874783254345,173.01847788802843</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>-41.01806904227008,173.01873743832078</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>-41.01944443340782,173.01837989457542</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>-41.01875377038786,173.01851525338924</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>-41.01809055623539,173.01876963540752</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:19+00:00</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>-41.01944140550589,173.01825828582412</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>-41.01874161721668,173.01843877662995</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>-41.018037754631195,173.01869061434004</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
